--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(V)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(V).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(V)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(V).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vac
-Vaccaria - fam. Caryophyllacées
+          <t>Vac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Vaccaria - fam. Caryophyllacées
 Vaccaria hispanica -  Vaccaire d'Espagne ou gypsophile des vaches
 Vaccaria pyramidata -  Saponaire à bouquet
 Vaccinium - fam. Éricacées
@@ -526,9 +543,43 @@
 Vaccinium myrtillus -  Myrtille noire
 Vaccinium oxycoccos - Canneberge ou « Myrtille palustre »
 Vaccinium uliginosum -  Airelle des marais
-Vaccinium vitis-idaea - Airelle rouge
-Val
-Valantina
+Vaccinium vitis-idaea - Airelle rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Va</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Val</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Valantina
 Valantina hispida -  Vaillantie hérissée
 Valeriana - fam. Valérianacées
 Valeriana celtica -  Valériane celte
@@ -558,42 +609,81 @@
 Vallantia
 Vallantia hispida - Vaillantie
 Vallisneria - fam. Hydrocharitacées
-Vallisneria spiralis -  Vallisnérie en spirale
-Vat
-Vatairea
+Vallisneria spiralis -  Vallisnérie en spirale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Va</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vatairea
 Vataireopsis
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ve</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ver
-Veratrum - fam. Liliacées
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ver</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veratrum - fam. Liliacées
 Veratrum album -  Vérâtre blanc ou « Hellébore blanc »
 Veratrum album lobelianum -  Vérâtre commun
 Veratrum nigrum -  Vérâtre noir
@@ -664,34 +754,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vib
-Viburnum - fam. Adoxacées
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vib</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Viburnum - fam. Adoxacées
 Viburnum alnifolium - Viorne à feuilles d'aulne
 Viburnum alnifolium carlcephallum
 Viburnum bitchiuense
@@ -716,9 +811,43 @@
 Viburnum sargentii calvescens -
 Viburnum setigerum
 Viburnum tinus
-Viburnum trilobum - Viorne trilobée
-Vic
-Vicia - fam. Fabacées
+Viburnum trilobum - Viorne trilobée</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vic</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vicia - fam. Fabacées
 Vicia bithynica - Vesce de Bithynie
 Vicia cassubica -  Vesce de Cachoubie
 Vicia cracca - Vesce craque
@@ -747,9 +876,43 @@
 Vicia sylvatica - Vesce des bois
 Vicia tetrasperma - Vesce à quatre graines
 Vicia villosa - Vesce velue
-Vicia villosa varia - Vesce bigarrée
-Vin
-Vinca - fam. Apocynacées
+Vicia villosa varia - Vesce bigarrée</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vinca - fam. Apocynacées
 Vinca balcanica
 Vinca difformis
 Vinca herbacea
@@ -757,9 +920,43 @@
 Vinca minor - Petite pervenche
 Vincetoxicum - Asclépiadacées
 Vincetoxicum funebra - Dompte-venin funèbre
-Vincetoxicum hirundinaria - Dompte-venin officinal
-Vio
-Viola - fam. Violacées
+Vincetoxicum hirundinaria - Dompte-venin officinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vio</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Viola - fam. Violacées
 Viola affinis - Violette affine
 Viola alba -  Violette blanche
 Viola alba scotophylla - Violette à feuilles sombres
@@ -801,18 +998,86 @@
 Viola suavis - Violette suave
 Viola thomasiana Songeon - Violette de Thomas Songeon
 Viola tricolor - Pensée sauvage ou « Pensée tricolore » ou « Pensée des champs »
-Viola tricolor hortensis ou Viola wittrockiana -  Pensée
-Vis
-Viscaria
+Viola tricolor hortensis ou Viola wittrockiana -  Pensée</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vis</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Viscaria
 Viscaria coeli-rosa - Coquelourde Rose du ciel
 Viscum - fam. Loranthacées (plante parasite)
 Viscum album - Gui blanc d'Europe ou « Vischio commune »
 Viscum album abietis - Gui de l'Abete ou « Vischio de l'Abete »
 Viscum album austriacum - Gui d'Autriche
 Visnaga - fam. Apiacées
-Visnaga daucoides - Ammi visnage
-Vit
-Vitex
+Visnaga daucoides - Ammi visnage</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vi</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vit</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vitex
 Vitex agnus-castus - Gatillier ou Faux-Poivrier
 Vitis - fam. Vitaceae
 Vitis labrusca - Vigne américaine ou « Vigne framboisier »
@@ -822,66 +1087,76 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Vo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vou
-Vouacapoua
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vou</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vouacapoua
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(V)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Vu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vul
-Vulpia - fam. Poacées
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vulpia - fam. Poacées
 Vulpia bromoides -  Vulpie faux brome
 Vulpia ciliata  -  Vulpie ciliée
 Vulpia myuros -  Vulpie queue-de-rat
